--- a/wte-extfiles/TestData.xlsx
+++ b/wte-extfiles/TestData.xlsx
@@ -2,14 +2,14 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\files\Run-20180417170132814\TestData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\aneesh\springboot-angular\wte\wte-extfiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20496" windowHeight="7620"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="680" uniqueCount="146">
   <si>
     <t>src</t>
   </si>
@@ -517,11 +517,32 @@
   <si>
     <t>CCLAUSSENTEST</t>
   </si>
+  <si>
+    <t>SC4</t>
+  </si>
+  <si>
+    <t>SC5</t>
+  </si>
+  <si>
+    <t>SC6</t>
+  </si>
+  <si>
+    <t>SC7</t>
+  </si>
+  <si>
+    <t>SC8</t>
+  </si>
+  <si>
+    <t>SC9</t>
+  </si>
+  <si>
+    <t>SC10</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -860,48 +881,50 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BU4"/>
+  <dimension ref="A1:BU12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5703125" customWidth="1"/>
-    <col min="7" max="8" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="12" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="22" max="24" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5546875" customWidth="1"/>
+    <col min="7" max="8" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="10" max="12" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="22" max="24" width="16.109375" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="20" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="35" max="36" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="9.42578125" customWidth="1"/>
-    <col min="38" max="39" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="35" max="36" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="9.44140625" customWidth="1"/>
+    <col min="38" max="39" width="11.88671875" bestFit="1" customWidth="1"/>
     <col min="53" max="54" width="11" bestFit="1" customWidth="1"/>
-    <col min="58" max="60" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="58" max="60" width="13.44140625" bestFit="1" customWidth="1"/>
     <col min="61" max="63" width="16" bestFit="1" customWidth="1"/>
-    <col min="64" max="64" width="18.7109375" customWidth="1"/>
-    <col min="65" max="66" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="67" max="67" width="22.140625" bestFit="1" customWidth="1"/>
-    <col min="68" max="69" width="13.140625" customWidth="1"/>
-    <col min="70" max="70" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="71" max="72" width="14.28515625" customWidth="1"/>
-    <col min="73" max="73" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="18.6640625" customWidth="1"/>
+    <col min="65" max="66" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="67" max="67" width="22.109375" bestFit="1" customWidth="1"/>
+    <col min="68" max="69" width="13.109375" customWidth="1"/>
+    <col min="70" max="70" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="71" max="72" width="14.33203125" customWidth="1"/>
+    <col min="73" max="73" width="19.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:73" ht="75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:73" ht="72" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -1122,7 +1145,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="2" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:73" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -1339,7 +1362,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="3" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:73" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
@@ -1552,7 +1575,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="4" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:73" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
@@ -1756,13 +1779,1729 @@
         <v>93</v>
       </c>
       <c r="BS4" s="2">
-        <v>34566164</v>
+        <v>853621739</v>
       </c>
       <c r="BT4" s="2">
         <v>34566164</v>
       </c>
       <c r="BU4" s="2" t="s">
         <v>135</v>
+      </c>
+    </row>
+    <row r="5" spans="1:73" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="M5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="O5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="P5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q5" s="2">
+        <v>19694275.666666701</v>
+      </c>
+      <c r="R5" s="2">
+        <v>19694275.666666701</v>
+      </c>
+      <c r="S5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="T5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="U5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="V5" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="W5" s="2">
+        <v>20177400.333333299</v>
+      </c>
+      <c r="X5" s="2">
+        <v>20177400.333333299</v>
+      </c>
+      <c r="Y5" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="Z5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="AA5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="AB5" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="AC5" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="AD5" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="AE5" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="AF5" s="2"/>
+      <c r="AG5" s="2"/>
+      <c r="AH5" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AI5" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AJ5" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AK5" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="AL5" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="AM5" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="AN5" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AO5" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="AP5" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="AQ5" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="AR5" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="AS5" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="AT5" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="AU5" s="2">
+        <v>2698</v>
+      </c>
+      <c r="AV5" s="2">
+        <v>2698</v>
+      </c>
+      <c r="AW5" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="AX5" s="2">
+        <v>10343.333333333299</v>
+      </c>
+      <c r="AY5" s="2">
+        <v>10343.333333333299</v>
+      </c>
+      <c r="AZ5" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="BA5" s="2">
+        <v>8963145369.6666698</v>
+      </c>
+      <c r="BB5" s="2">
+        <v>8963145369.6666698</v>
+      </c>
+      <c r="BC5" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="BD5" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="BE5" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="BF5" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="BG5" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="BH5" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="BI5" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="BJ5" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="BK5" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="BL5" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="BM5" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="BN5" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="BO5" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="BP5" s="2">
+        <v>4082016</v>
+      </c>
+      <c r="BQ5" s="2">
+        <v>1092019</v>
+      </c>
+      <c r="BR5" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="BS5" s="2">
+        <v>1498759023</v>
+      </c>
+      <c r="BT5" s="2">
+        <v>-453498122.33333302</v>
+      </c>
+      <c r="BU5" s="2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="6" spans="1:73" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+      <c r="M6" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="O6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="P6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q6" s="2">
+        <v>19619419.666666701</v>
+      </c>
+      <c r="R6" s="2">
+        <v>19619419.666666701</v>
+      </c>
+      <c r="S6" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="T6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="U6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="V6" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="W6" s="2">
+        <v>20177291.333333299</v>
+      </c>
+      <c r="X6" s="2">
+        <v>20177291.333333299</v>
+      </c>
+      <c r="Y6" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="Z6" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="AA6" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="AB6" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="AC6" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AD6" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AE6" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="AF6" s="2"/>
+      <c r="AG6" s="2"/>
+      <c r="AH6" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AI6" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="AJ6" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="AK6" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="AL6" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AM6" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AN6" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AO6" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="AP6" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="AQ6" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="AR6" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="AS6" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="AT6" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="AU6" s="2">
+        <v>-23065.5</v>
+      </c>
+      <c r="AV6" s="2">
+        <v>-23065.5</v>
+      </c>
+      <c r="AW6" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="AX6" s="2">
+        <v>12555.833333333299</v>
+      </c>
+      <c r="AY6" s="2">
+        <v>12555.833333333299</v>
+      </c>
+      <c r="AZ6" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="BA6" s="2">
+        <v>9086879418.1666698</v>
+      </c>
+      <c r="BB6" s="2">
+        <v>9086879418.1666698</v>
+      </c>
+      <c r="BC6" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="BD6" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="BE6" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="BF6" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="BG6" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="BH6" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="BI6" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="BJ6" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="BK6" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="BL6" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="BM6" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="BN6" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="BO6" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="BP6" s="2">
+        <v>7072013</v>
+      </c>
+      <c r="BQ6" s="2">
+        <v>1092019</v>
+      </c>
+      <c r="BR6" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="BS6" s="2">
+        <v>2143896307</v>
+      </c>
+      <c r="BT6" s="2">
+        <v>-863025909.83333302</v>
+      </c>
+      <c r="BU6" s="2" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="7" spans="1:73" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E7" s="2">
+        <v>1213456</v>
+      </c>
+      <c r="F7" s="2">
+        <v>1213456</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="O7" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="P7" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q7" s="2">
+        <v>19544563.666666701</v>
+      </c>
+      <c r="R7" s="2">
+        <v>19544563.666666701</v>
+      </c>
+      <c r="S7" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="T7" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="U7" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="V7" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="W7" s="2">
+        <v>20177182.333333299</v>
+      </c>
+      <c r="X7" s="2">
+        <v>20177182.333333299</v>
+      </c>
+      <c r="Y7" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="Z7" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="AA7" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="AB7" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="AC7" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="AD7" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="AE7" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="AF7" s="2"/>
+      <c r="AG7" s="2"/>
+      <c r="AH7" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AI7" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AJ7" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AK7" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="AL7" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="AM7" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="AN7" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AO7" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="AP7" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="AQ7" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="AR7" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="AS7" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="AT7" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="AU7" s="2">
+        <v>-48829</v>
+      </c>
+      <c r="AV7" s="2">
+        <v>-48829</v>
+      </c>
+      <c r="AW7" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="AX7" s="2">
+        <v>14768.333333333299</v>
+      </c>
+      <c r="AY7" s="2">
+        <v>14768.333333333299</v>
+      </c>
+      <c r="AZ7" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="BA7" s="2">
+        <v>9210613466.6666698</v>
+      </c>
+      <c r="BB7" s="2">
+        <v>9210613466.6666698</v>
+      </c>
+      <c r="BC7" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="BD7" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="BE7" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="BF7" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="BG7" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="BH7" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="BI7" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="BJ7" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="BK7" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="BL7" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="BM7" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="BN7" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="BO7" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="BP7" s="2">
+        <v>10062010</v>
+      </c>
+      <c r="BQ7" s="2">
+        <v>1092019</v>
+      </c>
+      <c r="BR7" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="BS7" s="2">
+        <v>2789033591</v>
+      </c>
+      <c r="BT7" s="2">
+        <v>-1272553697.3333299</v>
+      </c>
+      <c r="BU7" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="8" spans="1:73" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="M8" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="N8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="O8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="P8" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q8" s="2">
+        <v>19469707.666666701</v>
+      </c>
+      <c r="R8" s="2">
+        <v>19469707.666666701</v>
+      </c>
+      <c r="S8" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="T8" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="U8" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="V8" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="W8" s="2">
+        <v>20177073.333333299</v>
+      </c>
+      <c r="X8" s="2">
+        <v>20177073.333333299</v>
+      </c>
+      <c r="Y8" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="Z8" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="AA8" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="AB8" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="AC8" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="AD8" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="AE8" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="AF8" s="2"/>
+      <c r="AG8" s="2"/>
+      <c r="AH8" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AI8" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AJ8" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AK8" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="AL8" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="AM8" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="AN8" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AO8" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="AP8" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="AQ8" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="AR8" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="AS8" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="AT8" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="AU8" s="2">
+        <v>-74592.5</v>
+      </c>
+      <c r="AV8" s="2">
+        <v>-74592.5</v>
+      </c>
+      <c r="AW8" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="AX8" s="2">
+        <v>16980.833333333299</v>
+      </c>
+      <c r="AY8" s="2">
+        <v>16980.833333333299</v>
+      </c>
+      <c r="AZ8" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="BA8" s="2">
+        <v>9334347515.1666698</v>
+      </c>
+      <c r="BB8" s="2">
+        <v>9334347515.1666698</v>
+      </c>
+      <c r="BC8" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="BD8" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="BE8" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="BF8" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="BG8" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="BH8" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="BI8" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="BJ8" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="BK8" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="BL8" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="BM8" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="BN8" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="BO8" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="BP8" s="2">
+        <v>13052007</v>
+      </c>
+      <c r="BQ8" s="2">
+        <v>1092019</v>
+      </c>
+      <c r="BR8" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="BS8" s="2">
+        <v>3434170875</v>
+      </c>
+      <c r="BT8" s="2">
+        <v>-1682081484.8333299</v>
+      </c>
+      <c r="BU8" s="2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="9" spans="1:73" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
+      <c r="M9" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="N9" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="O9" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="P9" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q9" s="2">
+        <v>19394851.666666701</v>
+      </c>
+      <c r="R9" s="2">
+        <v>19394851.666666701</v>
+      </c>
+      <c r="S9" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="T9" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="U9" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="V9" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="W9" s="2">
+        <v>20176964.333333299</v>
+      </c>
+      <c r="X9" s="2">
+        <v>20176964.333333299</v>
+      </c>
+      <c r="Y9" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="Z9" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="AA9" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="AB9" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="AC9" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AD9" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AE9" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="AF9" s="2"/>
+      <c r="AG9" s="2"/>
+      <c r="AH9" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AI9" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="AJ9" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="AK9" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="AL9" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AM9" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AN9" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AO9" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="AP9" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="AQ9" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="AR9" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="AS9" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="AT9" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="AU9" s="2">
+        <v>-100356</v>
+      </c>
+      <c r="AV9" s="2">
+        <v>-100356</v>
+      </c>
+      <c r="AW9" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="AX9" s="2">
+        <v>19193.333333333299</v>
+      </c>
+      <c r="AY9" s="2">
+        <v>19193.333333333299</v>
+      </c>
+      <c r="AZ9" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="BA9" s="2">
+        <v>9458081563.6666698</v>
+      </c>
+      <c r="BB9" s="2">
+        <v>9458081563.6666698</v>
+      </c>
+      <c r="BC9" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="BD9" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="BE9" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="BF9" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="BG9" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="BH9" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="BI9" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="BJ9" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="BK9" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="BL9" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="BM9" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="BN9" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="BO9" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="BP9" s="2">
+        <v>16042004</v>
+      </c>
+      <c r="BQ9" s="2">
+        <v>1092019</v>
+      </c>
+      <c r="BR9" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="BS9" s="2">
+        <v>4079308159</v>
+      </c>
+      <c r="BT9" s="2">
+        <v>-2091609272.3333299</v>
+      </c>
+      <c r="BU9" s="2" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="10" spans="1:73" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E10" s="2">
+        <v>1213456</v>
+      </c>
+      <c r="F10" s="2">
+        <v>1213456</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2"/>
+      <c r="M10" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="N10" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="O10" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="P10" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q10" s="2">
+        <v>19319995.666666701</v>
+      </c>
+      <c r="R10" s="2">
+        <v>19319995.666666701</v>
+      </c>
+      <c r="S10" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="T10" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="U10" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="V10" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="W10" s="2">
+        <v>20176855.333333299</v>
+      </c>
+      <c r="X10" s="2">
+        <v>20176855.333333299</v>
+      </c>
+      <c r="Y10" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="Z10" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="AA10" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="AB10" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="AC10" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="AD10" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="AE10" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="AF10" s="2"/>
+      <c r="AG10" s="2"/>
+      <c r="AH10" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AI10" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AJ10" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AK10" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="AL10" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="AM10" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="AN10" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AO10" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="AP10" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="AQ10" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="AR10" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="AS10" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="AT10" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="AU10" s="2">
+        <v>-126119.5</v>
+      </c>
+      <c r="AV10" s="2">
+        <v>-126119.5</v>
+      </c>
+      <c r="AW10" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="AX10" s="2">
+        <v>21405.833333333299</v>
+      </c>
+      <c r="AY10" s="2">
+        <v>21405.833333333299</v>
+      </c>
+      <c r="AZ10" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="BA10" s="2">
+        <v>9581815612.1666698</v>
+      </c>
+      <c r="BB10" s="2">
+        <v>9581815612.1666698</v>
+      </c>
+      <c r="BC10" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="BD10" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="BE10" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="BF10" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="BG10" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="BH10" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="BI10" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="BJ10" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="BK10" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="BL10" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="BM10" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="BN10" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="BO10" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="BP10" s="2">
+        <v>19032001</v>
+      </c>
+      <c r="BQ10" s="2">
+        <v>1092019</v>
+      </c>
+      <c r="BR10" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="BS10" s="2">
+        <v>4724445443</v>
+      </c>
+      <c r="BT10" s="2">
+        <v>-2501137059.8333302</v>
+      </c>
+      <c r="BU10" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="11" spans="1:73" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="M11" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="N11" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="O11" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="P11" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q11" s="2">
+        <v>19245139.666666701</v>
+      </c>
+      <c r="R11" s="2">
+        <v>19245139.666666701</v>
+      </c>
+      <c r="S11" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="T11" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="U11" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="V11" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="W11" s="2">
+        <v>20176746.333333299</v>
+      </c>
+      <c r="X11" s="2">
+        <v>20176746.333333299</v>
+      </c>
+      <c r="Y11" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="Z11" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="AA11" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="AB11" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="AC11" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="AD11" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="AE11" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="AF11" s="2"/>
+      <c r="AG11" s="2"/>
+      <c r="AH11" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AI11" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AJ11" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AK11" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="AL11" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="AM11" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="AN11" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AO11" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="AP11" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="AQ11" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="AR11" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="AS11" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="AT11" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="AU11" s="2">
+        <v>-151883</v>
+      </c>
+      <c r="AV11" s="2">
+        <v>-151883</v>
+      </c>
+      <c r="AW11" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="AX11" s="2">
+        <v>23618.333333333299</v>
+      </c>
+      <c r="AY11" s="2">
+        <v>23618.333333333299</v>
+      </c>
+      <c r="AZ11" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="BA11" s="2">
+        <v>9705549660.6666698</v>
+      </c>
+      <c r="BB11" s="2">
+        <v>9705549660.6666698</v>
+      </c>
+      <c r="BC11" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="BD11" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="BE11" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="BF11" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="BG11" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="BH11" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="BI11" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="BJ11" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="BK11" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="BL11" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="BM11" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="BN11" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="BO11" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="BP11" s="2">
+        <v>22021998</v>
+      </c>
+      <c r="BQ11" s="2">
+        <v>1092019</v>
+      </c>
+      <c r="BR11" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="BS11" s="2">
+        <v>5369582727</v>
+      </c>
+      <c r="BT11" s="2">
+        <v>-2910664847.3333302</v>
+      </c>
+      <c r="BU11" s="2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="12" spans="1:73" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K12" s="2"/>
+      <c r="L12" s="2"/>
+      <c r="M12" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="N12" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="O12" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="P12" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q12" s="2">
+        <v>19170283.666666701</v>
+      </c>
+      <c r="R12" s="2">
+        <v>19170283.666666701</v>
+      </c>
+      <c r="S12" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="T12" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="U12" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="V12" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="W12" s="2">
+        <v>20176637.333333299</v>
+      </c>
+      <c r="X12" s="2">
+        <v>20176637.333333299</v>
+      </c>
+      <c r="Y12" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="Z12" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="AA12" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="AB12" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="AC12" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AD12" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AE12" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="AF12" s="2"/>
+      <c r="AG12" s="2"/>
+      <c r="AH12" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AI12" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="AJ12" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="AK12" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="AL12" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AM12" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AN12" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AO12" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="AP12" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="AQ12" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="AR12" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="AS12" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="AT12" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="AU12" s="2">
+        <v>-177646.5</v>
+      </c>
+      <c r="AV12" s="2">
+        <v>-177646.5</v>
+      </c>
+      <c r="AW12" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="AX12" s="2">
+        <v>25830.833333333299</v>
+      </c>
+      <c r="AY12" s="2">
+        <v>25830.833333333299</v>
+      </c>
+      <c r="AZ12" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="BA12" s="2">
+        <v>9829283709.1666698</v>
+      </c>
+      <c r="BB12" s="2">
+        <v>9829283709.1666698</v>
+      </c>
+      <c r="BC12" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="BD12" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="BE12" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="BF12" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="BG12" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="BH12" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="BI12" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="BJ12" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="BK12" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="BL12" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="BM12" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="BN12" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="BO12" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="BP12" s="2">
+        <v>25011995</v>
+      </c>
+      <c r="BQ12" s="2">
+        <v>1092019</v>
+      </c>
+      <c r="BR12" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="BS12" s="2">
+        <v>6014720011</v>
+      </c>
+      <c r="BT12" s="2">
+        <v>-3320192634.8333302</v>
+      </c>
+      <c r="BU12" s="2" t="s">
+        <v>134</v>
       </c>
     </row>
   </sheetData>
